--- a/기획/시스템 기획/스테이지 기획서 ( 초안 ).xlsx
+++ b/기획/시스템 기획/스테이지 기획서 ( 초안 ).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daemin Kwon\Desktop\유니티 프로젝트 회의 록\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daemin Kwon\Desktop\1team_UnityProject\기획\시스템 기획\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDC735E-19E5-4D65-83AC-D5BA63E4D4C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6550FFA5-E999-48CC-944A-25D6037919A5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{A5314B74-712B-4157-B998-EA89B45BD2E0}"/>
   </bookViews>
@@ -858,29 +858,287 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -888,15 +1146,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -905,255 +1154,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="27" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1855,7 +1855,7 @@
   <dimension ref="B1:P120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="O110" sqref="O110"/>
+      <selection activeCell="O103" sqref="O103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1868,1535 +1868,1573 @@
   <sheetData>
     <row r="1" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="14"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="11"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="97"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="14"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="11"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="97"/>
     </row>
     <row r="5" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="100"/>
     </row>
     <row r="7" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91"/>
     </row>
     <row r="8" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B8" s="50">
+      <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
     </row>
     <row r="9" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B9" s="50">
+      <c r="B9" s="3">
         <v>2</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
     </row>
     <row r="10" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B10" s="50">
+      <c r="B10" s="3">
         <v>3</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
     </row>
     <row r="11" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="50">
+      <c r="B11" s="3">
         <v>4</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
     </row>
     <row r="12" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B12" s="50">
+      <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
     </row>
     <row r="13" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B13" s="50">
+      <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
     </row>
     <row r="14" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B14" s="50">
+      <c r="B14" s="3">
         <v>7</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
     </row>
     <row r="15" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="50">
+      <c r="B15" s="3">
         <v>8</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
     </row>
     <row r="16" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B16" s="50">
+      <c r="B16" s="3">
         <v>9</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
     </row>
     <row r="17" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="50">
+      <c r="B17" s="3">
         <v>10</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
     </row>
     <row r="18" spans="2:11" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="89"/>
+      <c r="K18" s="89"/>
     </row>
     <row r="19" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="22"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="73"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="6"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="81"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="6"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="81"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="6"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="80"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="81"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="6"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="81"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="6"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="81"/>
     </row>
     <row r="25" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="7"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="9"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="85"/>
     </row>
     <row r="26" spans="2:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="30"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="88"/>
     </row>
     <row r="28" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="29" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="22"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="73"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="6"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="80"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="80"/>
+      <c r="J30" s="80"/>
+      <c r="K30" s="81"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="6"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="81"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B32" s="4"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="6"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="81"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B33" s="4"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="6"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="81"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B34" s="4"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="6"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="80"/>
+      <c r="G34" s="80"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="80"/>
+      <c r="J34" s="80"/>
+      <c r="K34" s="81"/>
     </row>
     <row r="35" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="7"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="9"/>
+      <c r="B35" s="83"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="85"/>
     </row>
     <row r="36" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="23" t="s">
+      <c r="B36" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="24"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="67"/>
+      <c r="G36" s="67"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="68"/>
     </row>
     <row r="37" spans="2:11" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="27"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="70"/>
+      <c r="D37" s="70"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="71"/>
     </row>
     <row r="39" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="40" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="22"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="72"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="72"/>
+      <c r="G40" s="72"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="73"/>
     </row>
     <row r="41" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="37"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="55"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="18"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="34"/>
-      <c r="K42" s="38"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="58"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="18"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="38"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="58"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B44" s="18"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="38"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="58"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B45" s="18"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="38"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="58"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B46" s="18"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="38"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="58"/>
     </row>
     <row r="47" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="39"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="40"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="61"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
-      <c r="K48" s="24"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="67"/>
+      <c r="H48" s="67"/>
+      <c r="I48" s="67"/>
+      <c r="J48" s="67"/>
+      <c r="K48" s="68"/>
     </row>
     <row r="49" spans="2:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="25"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="27"/>
+      <c r="B49" s="69"/>
+      <c r="C49" s="70"/>
+      <c r="D49" s="70"/>
+      <c r="E49" s="70"/>
+      <c r="F49" s="70"/>
+      <c r="G49" s="70"/>
+      <c r="H49" s="70"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="71"/>
     </row>
     <row r="51" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="52" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="21"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="22"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
+      <c r="G52" s="72"/>
+      <c r="H52" s="72"/>
+      <c r="I52" s="72"/>
+      <c r="J52" s="72"/>
+      <c r="K52" s="73"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="33"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="37"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="55"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B54" s="18"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
-      <c r="I54" s="34"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="38"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
+      <c r="I54" s="57"/>
+      <c r="J54" s="57"/>
+      <c r="K54" s="58"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B55" s="18"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="34"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="38"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+      <c r="G55" s="57"/>
+      <c r="H55" s="57"/>
+      <c r="I55" s="57"/>
+      <c r="J55" s="57"/>
+      <c r="K55" s="58"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B56" s="18"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="38"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="58"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B57" s="18"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="38"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
+      <c r="F57" s="57"/>
+      <c r="G57" s="57"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="57"/>
+      <c r="J57" s="57"/>
+      <c r="K57" s="58"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B58" s="18"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="38"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="58"/>
     </row>
     <row r="59" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="39"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="40"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="60"/>
+      <c r="F59" s="60"/>
+      <c r="G59" s="60"/>
+      <c r="H59" s="60"/>
+      <c r="I59" s="60"/>
+      <c r="J59" s="60"/>
+      <c r="K59" s="61"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
-      <c r="K60" s="24"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="68"/>
     </row>
     <row r="61" spans="2:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="25"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="27"/>
+      <c r="B61" s="69"/>
+      <c r="C61" s="70"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="70"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="70"/>
+      <c r="J61" s="70"/>
+      <c r="K61" s="71"/>
     </row>
     <row r="63" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="64" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="20" t="s">
+      <c r="B64" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="21"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="22"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="F64" s="72"/>
+      <c r="G64" s="72"/>
+      <c r="H64" s="72"/>
+      <c r="I64" s="72"/>
+      <c r="J64" s="72"/>
+      <c r="K64" s="73"/>
     </row>
     <row r="65" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="36" t="s">
+      <c r="B65" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
-      <c r="J65" s="33"/>
-      <c r="K65" s="37"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="55"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B66" s="18"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" s="34"/>
-      <c r="K66" s="38"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="57"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
+      <c r="J66" s="57"/>
+      <c r="K66" s="58"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B67" s="18"/>
-      <c r="C67" s="34"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="34"/>
-      <c r="H67" s="34"/>
-      <c r="I67" s="34"/>
-      <c r="J67" s="34"/>
-      <c r="K67" s="38"/>
+      <c r="B67" s="56"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="57"/>
+      <c r="K67" s="58"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B68" s="18"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="34"/>
-      <c r="K68" s="38"/>
+      <c r="B68" s="56"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="57"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="57"/>
+      <c r="K68" s="58"/>
     </row>
     <row r="69" spans="2:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="18"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
-      <c r="J69" s="34"/>
-      <c r="K69" s="38"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="57"/>
+      <c r="K69" s="58"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B70" s="18"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="34"/>
-      <c r="I70" s="34"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="38"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="57"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="57"/>
+      <c r="J70" s="57"/>
+      <c r="K70" s="58"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B71" s="18"/>
-      <c r="C71" s="34"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="38"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="57"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="57"/>
+      <c r="I71" s="57"/>
+      <c r="J71" s="57"/>
+      <c r="K71" s="58"/>
     </row>
     <row r="72" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="39"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
-      <c r="K72" s="40"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="60"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="61"/>
     </row>
     <row r="73" spans="2:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="23" t="s">
+      <c r="B73" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="19"/>
-      <c r="G73" s="19"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="24"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="67"/>
+      <c r="K73" s="68"/>
     </row>
     <row r="74" spans="2:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="25"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="27"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="70"/>
+      <c r="H74" s="70"/>
+      <c r="I74" s="70"/>
+      <c r="J74" s="70"/>
+      <c r="K74" s="71"/>
     </row>
     <row r="76" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="77" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="20" t="s">
+      <c r="B77" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="22"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+      <c r="E77" s="72"/>
+      <c r="F77" s="72"/>
+      <c r="G77" s="72"/>
+      <c r="H77" s="72"/>
+      <c r="I77" s="72"/>
+      <c r="J77" s="72"/>
+      <c r="K77" s="73"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B78" s="36" t="s">
+      <c r="B78" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33"/>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33"/>
-      <c r="I78" s="33"/>
-      <c r="J78" s="33"/>
-      <c r="K78" s="37"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="54"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="54"/>
+      <c r="K78" s="55"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B79" s="18"/>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="34"/>
-      <c r="I79" s="34"/>
-      <c r="J79" s="34"/>
-      <c r="K79" s="38"/>
+      <c r="B79" s="56"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
+      <c r="E79" s="57"/>
+      <c r="F79" s="57"/>
+      <c r="G79" s="57"/>
+      <c r="H79" s="57"/>
+      <c r="I79" s="57"/>
+      <c r="J79" s="57"/>
+      <c r="K79" s="58"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B80" s="18"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="34"/>
-      <c r="E80" s="34"/>
-      <c r="F80" s="34"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="34"/>
-      <c r="I80" s="34"/>
-      <c r="J80" s="34"/>
-      <c r="K80" s="38"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="57"/>
+      <c r="E80" s="57"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="57"/>
+      <c r="I80" s="57"/>
+      <c r="J80" s="57"/>
+      <c r="K80" s="58"/>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B81" s="18"/>
-      <c r="C81" s="34"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="34"/>
-      <c r="F81" s="34"/>
-      <c r="G81" s="34"/>
-      <c r="H81" s="34"/>
-      <c r="I81" s="34"/>
-      <c r="J81" s="34"/>
-      <c r="K81" s="38"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="57"/>
+      <c r="E81" s="57"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="57"/>
+      <c r="H81" s="57"/>
+      <c r="I81" s="57"/>
+      <c r="J81" s="57"/>
+      <c r="K81" s="58"/>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B82" s="18"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="34"/>
-      <c r="F82" s="34"/>
-      <c r="G82" s="34"/>
-      <c r="H82" s="34"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="34"/>
-      <c r="K82" s="38"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="57"/>
+      <c r="J82" s="57"/>
+      <c r="K82" s="58"/>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B83" s="18"/>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="34"/>
-      <c r="K83" s="38"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="57"/>
+      <c r="E83" s="57"/>
+      <c r="F83" s="57"/>
+      <c r="G83" s="57"/>
+      <c r="H83" s="57"/>
+      <c r="I83" s="57"/>
+      <c r="J83" s="57"/>
+      <c r="K83" s="58"/>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B84" s="18"/>
-      <c r="C84" s="34"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="34"/>
-      <c r="F84" s="34"/>
-      <c r="G84" s="34"/>
-      <c r="H84" s="34"/>
-      <c r="I84" s="34"/>
-      <c r="J84" s="34"/>
-      <c r="K84" s="38"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="57"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="57"/>
+      <c r="I84" s="57"/>
+      <c r="J84" s="57"/>
+      <c r="K84" s="58"/>
     </row>
     <row r="85" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="39"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
-      <c r="I85" s="35"/>
-      <c r="J85" s="35"/>
-      <c r="K85" s="40"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="60"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="60"/>
+      <c r="J85" s="60"/>
+      <c r="K85" s="61"/>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B86" s="44" t="s">
+      <c r="B86" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C86" s="45"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="45"/>
-      <c r="F86" s="45"/>
-      <c r="G86" s="45"/>
-      <c r="H86" s="45"/>
-      <c r="I86" s="45"/>
-      <c r="J86" s="45"/>
-      <c r="K86" s="46"/>
+      <c r="C86" s="75"/>
+      <c r="D86" s="75"/>
+      <c r="E86" s="75"/>
+      <c r="F86" s="75"/>
+      <c r="G86" s="75"/>
+      <c r="H86" s="75"/>
+      <c r="I86" s="75"/>
+      <c r="J86" s="75"/>
+      <c r="K86" s="76"/>
     </row>
     <row r="87" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="47"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="48"/>
-      <c r="F87" s="48"/>
-      <c r="G87" s="48"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="48"/>
-      <c r="J87" s="48"/>
-      <c r="K87" s="49"/>
+      <c r="B87" s="77"/>
+      <c r="C87" s="78"/>
+      <c r="D87" s="78"/>
+      <c r="E87" s="78"/>
+      <c r="F87" s="78"/>
+      <c r="G87" s="78"/>
+      <c r="H87" s="78"/>
+      <c r="I87" s="78"/>
+      <c r="J87" s="78"/>
+      <c r="K87" s="79"/>
     </row>
     <row r="89" spans="2:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="90" spans="2:16" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="20" t="s">
+      <c r="B90" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C90" s="21"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="21"/>
-      <c r="H90" s="21"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="22"/>
+      <c r="C90" s="72"/>
+      <c r="D90" s="72"/>
+      <c r="E90" s="72"/>
+      <c r="F90" s="72"/>
+      <c r="G90" s="72"/>
+      <c r="H90" s="72"/>
+      <c r="I90" s="72"/>
+      <c r="J90" s="72"/>
+      <c r="K90" s="73"/>
     </row>
     <row r="91" spans="2:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="36" t="s">
+      <c r="B91" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="33"/>
-      <c r="I91" s="33"/>
-      <c r="J91" s="33"/>
-      <c r="K91" s="37"/>
+      <c r="C91" s="54"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="54"/>
+      <c r="G91" s="54"/>
+      <c r="H91" s="54"/>
+      <c r="I91" s="54"/>
+      <c r="J91" s="54"/>
+      <c r="K91" s="55"/>
       <c r="P91" s="1"/>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B92" s="18"/>
-      <c r="C92" s="34"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="34"/>
-      <c r="F92" s="34"/>
-      <c r="G92" s="34"/>
-      <c r="H92" s="34"/>
-      <c r="I92" s="34"/>
-      <c r="J92" s="34"/>
-      <c r="K92" s="38"/>
+      <c r="B92" s="56"/>
+      <c r="C92" s="57"/>
+      <c r="D92" s="57"/>
+      <c r="E92" s="57"/>
+      <c r="F92" s="57"/>
+      <c r="G92" s="57"/>
+      <c r="H92" s="57"/>
+      <c r="I92" s="57"/>
+      <c r="J92" s="57"/>
+      <c r="K92" s="58"/>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B93" s="18"/>
-      <c r="C93" s="34"/>
-      <c r="D93" s="34"/>
-      <c r="E93" s="34"/>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="34"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="34"/>
-      <c r="K93" s="38"/>
+      <c r="B93" s="56"/>
+      <c r="C93" s="57"/>
+      <c r="D93" s="57"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="57"/>
+      <c r="H93" s="57"/>
+      <c r="I93" s="57"/>
+      <c r="J93" s="57"/>
+      <c r="K93" s="58"/>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B94" s="18"/>
-      <c r="C94" s="34"/>
-      <c r="D94" s="34"/>
-      <c r="E94" s="34"/>
-      <c r="F94" s="34"/>
-      <c r="G94" s="34"/>
-      <c r="H94" s="34"/>
-      <c r="I94" s="34"/>
-      <c r="J94" s="34"/>
-      <c r="K94" s="38"/>
+      <c r="B94" s="56"/>
+      <c r="C94" s="57"/>
+      <c r="D94" s="57"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="57"/>
+      <c r="G94" s="57"/>
+      <c r="H94" s="57"/>
+      <c r="I94" s="57"/>
+      <c r="J94" s="57"/>
+      <c r="K94" s="58"/>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B95" s="18"/>
-      <c r="C95" s="34"/>
-      <c r="D95" s="34"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="34"/>
-      <c r="G95" s="34"/>
-      <c r="H95" s="34"/>
-      <c r="I95" s="34"/>
-      <c r="J95" s="34"/>
-      <c r="K95" s="38"/>
+      <c r="B95" s="56"/>
+      <c r="C95" s="57"/>
+      <c r="D95" s="57"/>
+      <c r="E95" s="57"/>
+      <c r="F95" s="57"/>
+      <c r="G95" s="57"/>
+      <c r="H95" s="57"/>
+      <c r="I95" s="57"/>
+      <c r="J95" s="57"/>
+      <c r="K95" s="58"/>
     </row>
     <row r="96" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B96" s="18"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
-      <c r="I96" s="34"/>
-      <c r="J96" s="34"/>
-      <c r="K96" s="38"/>
+      <c r="B96" s="56"/>
+      <c r="C96" s="57"/>
+      <c r="D96" s="57"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="57"/>
+      <c r="G96" s="57"/>
+      <c r="H96" s="57"/>
+      <c r="I96" s="57"/>
+      <c r="J96" s="57"/>
+      <c r="K96" s="58"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B97" s="18"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34"/>
-      <c r="I97" s="34"/>
-      <c r="J97" s="34"/>
-      <c r="K97" s="38"/>
+      <c r="B97" s="56"/>
+      <c r="C97" s="57"/>
+      <c r="D97" s="57"/>
+      <c r="E97" s="57"/>
+      <c r="F97" s="57"/>
+      <c r="G97" s="57"/>
+      <c r="H97" s="57"/>
+      <c r="I97" s="57"/>
+      <c r="J97" s="57"/>
+      <c r="K97" s="58"/>
     </row>
     <row r="98" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="39"/>
-      <c r="C98" s="35"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
-      <c r="I98" s="35"/>
-      <c r="J98" s="35"/>
-      <c r="K98" s="40"/>
+      <c r="B98" s="59"/>
+      <c r="C98" s="60"/>
+      <c r="D98" s="60"/>
+      <c r="E98" s="60"/>
+      <c r="F98" s="60"/>
+      <c r="G98" s="60"/>
+      <c r="H98" s="60"/>
+      <c r="I98" s="60"/>
+      <c r="J98" s="60"/>
+      <c r="K98" s="61"/>
     </row>
     <row r="99" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="43"/>
-      <c r="H99" s="43"/>
-      <c r="I99" s="43"/>
-      <c r="J99" s="43"/>
-      <c r="K99" s="43"/>
+      <c r="B99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C100" s="92" t="s">
+      <c r="C100" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D100" s="93"/>
-      <c r="E100" s="93"/>
-      <c r="F100" s="93"/>
-      <c r="G100" s="94"/>
+      <c r="D100" s="51"/>
+      <c r="E100" s="51"/>
+      <c r="F100" s="51"/>
+      <c r="G100" s="52"/>
     </row>
     <row r="101" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="55"/>
-      <c r="C101" s="95">
+      <c r="B101" s="5"/>
+      <c r="C101" s="19">
         <v>1</v>
       </c>
-      <c r="D101" s="96">
+      <c r="D101" s="20">
         <v>2</v>
       </c>
-      <c r="E101" s="96">
+      <c r="E101" s="20">
         <v>3</v>
       </c>
-      <c r="F101" s="96">
+      <c r="F101" s="20">
         <v>4</v>
       </c>
-      <c r="G101" s="97">
+      <c r="G101" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="102" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="61" t="s">
+      <c r="B102" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C102" s="60" t="s">
+      <c r="C102" s="62" t="s">
         <v>31</v>
       </c>
-      <c r="D102" s="58"/>
-      <c r="E102" s="58"/>
-      <c r="F102" s="58"/>
-      <c r="G102" s="59"/>
+      <c r="D102" s="63"/>
+      <c r="E102" s="63"/>
+      <c r="F102" s="63"/>
+      <c r="G102" s="64"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B103" s="62"/>
-      <c r="C103" s="98">
+      <c r="B103" s="9"/>
+      <c r="C103" s="22">
         <v>1</v>
       </c>
-      <c r="D103" s="52">
+      <c r="D103" s="4">
         <v>2</v>
       </c>
-      <c r="E103" s="52">
+      <c r="E103" s="4">
         <v>3</v>
       </c>
-      <c r="F103" s="52">
+      <c r="F103" s="4">
         <v>4</v>
       </c>
-      <c r="G103" s="99">
+      <c r="G103" s="23">
         <v>5</v>
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B104" s="62"/>
-      <c r="C104" s="98">
+      <c r="B104" s="9"/>
+      <c r="C104" s="22">
         <v>3</v>
       </c>
-      <c r="D104" s="52">
+      <c r="D104" s="4">
         <v>5</v>
       </c>
-      <c r="E104" s="52">
+      <c r="E104" s="4">
         <v>7</v>
       </c>
-      <c r="F104" s="52">
+      <c r="F104" s="4">
         <v>9</v>
       </c>
-      <c r="G104" s="99">
+      <c r="G104" s="23">
         <v>11</v>
       </c>
     </row>
     <row r="105" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="63"/>
-      <c r="C105" s="100">
+      <c r="B105" s="10"/>
+      <c r="C105" s="24">
         <v>6</v>
       </c>
-      <c r="D105" s="56">
+      <c r="D105" s="6">
         <v>10</v>
       </c>
-      <c r="E105" s="56">
+      <c r="E105" s="6">
         <v>14</v>
       </c>
-      <c r="F105" s="56">
+      <c r="F105" s="6">
         <v>18</v>
       </c>
-      <c r="G105" s="57">
+      <c r="G105" s="7">
         <v>22</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B106" s="55"/>
-      <c r="C106" s="55"/>
-      <c r="D106" s="55"/>
-      <c r="E106" s="55"/>
-      <c r="F106" s="55"/>
-      <c r="G106" s="55"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
     </row>
     <row r="107" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="108" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="20" t="s">
+      <c r="B108" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C108" s="75"/>
-      <c r="D108" s="75"/>
-      <c r="E108" s="75"/>
-      <c r="F108" s="75"/>
-      <c r="G108" s="75"/>
-      <c r="H108" s="75"/>
-      <c r="I108" s="20" t="s">
+      <c r="C108" s="32"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="32"/>
+      <c r="I108" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="J108" s="75"/>
-      <c r="K108" s="76"/>
+      <c r="J108" s="32"/>
+      <c r="K108" s="33"/>
     </row>
     <row r="109" spans="2:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="74"/>
-      <c r="C109" s="71" t="s">
+      <c r="B109" s="12"/>
+      <c r="C109" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D109" s="65">
+      <c r="D109" s="37">
         <v>1</v>
       </c>
-      <c r="E109" s="66">
+      <c r="E109" s="39">
         <v>2</v>
       </c>
-      <c r="F109" s="66">
+      <c r="F109" s="39">
         <v>3</v>
       </c>
-      <c r="G109" s="66">
+      <c r="G109" s="39">
         <v>4</v>
       </c>
-      <c r="H109" s="67">
+      <c r="H109" s="41">
         <v>5</v>
       </c>
-      <c r="I109" s="31" t="s">
+      <c r="I109" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="J109" s="31"/>
-      <c r="K109" s="53"/>
+      <c r="J109" s="43"/>
+      <c r="K109" s="44"/>
     </row>
     <row r="110" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="65" t="s">
+      <c r="B110" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C110" s="67"/>
-      <c r="D110" s="70"/>
-      <c r="E110" s="64"/>
-      <c r="F110" s="64"/>
-      <c r="G110" s="64"/>
-      <c r="H110" s="69"/>
-      <c r="I110" s="32"/>
-      <c r="J110" s="32"/>
-      <c r="K110" s="54"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="38"/>
+      <c r="E110" s="40"/>
+      <c r="F110" s="40"/>
+      <c r="G110" s="40"/>
+      <c r="H110" s="42"/>
+      <c r="I110" s="45"/>
+      <c r="J110" s="45"/>
+      <c r="K110" s="46"/>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B111" s="68">
+      <c r="B111" s="47">
         <v>1</v>
       </c>
-      <c r="C111" s="69"/>
-      <c r="D111" s="77">
+      <c r="C111" s="42"/>
+      <c r="D111" s="13">
         <v>100</v>
       </c>
-      <c r="E111" s="78">
+      <c r="E111" s="14">
         <v>0</v>
       </c>
-      <c r="F111" s="78">
+      <c r="F111" s="14">
         <v>0</v>
       </c>
-      <c r="G111" s="78">
+      <c r="G111" s="14">
         <v>0</v>
       </c>
-      <c r="H111" s="81">
+      <c r="H111" s="17">
         <v>0</v>
       </c>
-      <c r="I111" s="86">
+      <c r="I111" s="34">
         <v>2</v>
       </c>
-      <c r="J111" s="87"/>
-      <c r="K111" s="88"/>
+      <c r="J111" s="35"/>
+      <c r="K111" s="36"/>
     </row>
     <row r="112" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B112" s="68">
+      <c r="B112" s="47">
         <v>2</v>
       </c>
-      <c r="C112" s="69"/>
-      <c r="D112" s="77">
+      <c r="C112" s="42"/>
+      <c r="D112" s="13">
         <v>70</v>
       </c>
-      <c r="E112" s="78">
+      <c r="E112" s="14">
         <v>30</v>
       </c>
-      <c r="F112" s="78">
+      <c r="F112" s="14">
         <v>0</v>
       </c>
-      <c r="G112" s="78">
+      <c r="G112" s="14">
         <v>0</v>
       </c>
-      <c r="H112" s="81">
+      <c r="H112" s="17">
         <v>0</v>
       </c>
-      <c r="I112" s="83">
+      <c r="I112" s="25">
         <v>2</v>
       </c>
-      <c r="J112" s="84"/>
-      <c r="K112" s="85"/>
+      <c r="J112" s="26"/>
+      <c r="K112" s="27"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B113" s="68">
+      <c r="B113" s="47">
         <v>3</v>
       </c>
-      <c r="C113" s="69"/>
-      <c r="D113" s="77">
+      <c r="C113" s="42"/>
+      <c r="D113" s="13">
         <v>50</v>
       </c>
-      <c r="E113" s="78">
+      <c r="E113" s="14">
         <v>30</v>
       </c>
-      <c r="F113" s="78">
+      <c r="F113" s="14">
         <v>20</v>
       </c>
-      <c r="G113" s="78">
+      <c r="G113" s="14">
         <v>0</v>
       </c>
-      <c r="H113" s="81">
+      <c r="H113" s="17">
         <v>0</v>
       </c>
-      <c r="I113" s="83">
+      <c r="I113" s="25">
         <v>6</v>
       </c>
-      <c r="J113" s="84"/>
-      <c r="K113" s="85"/>
+      <c r="J113" s="26"/>
+      <c r="K113" s="27"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B114" s="68">
+      <c r="B114" s="47">
         <v>4</v>
       </c>
-      <c r="C114" s="69"/>
-      <c r="D114" s="77">
+      <c r="C114" s="42"/>
+      <c r="D114" s="13">
+        <v>39</v>
+      </c>
+      <c r="E114" s="14">
+        <v>30</v>
+      </c>
+      <c r="F114" s="14">
+        <v>30</v>
+      </c>
+      <c r="G114" s="14">
+        <v>1</v>
+      </c>
+      <c r="H114" s="17">
+        <v>0</v>
+      </c>
+      <c r="I114" s="25">
+        <v>10</v>
+      </c>
+      <c r="J114" s="26"/>
+      <c r="K114" s="27"/>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B115" s="47">
+        <v>5</v>
+      </c>
+      <c r="C115" s="42"/>
+      <c r="D115" s="13">
+        <v>20</v>
+      </c>
+      <c r="E115" s="14">
+        <v>30</v>
+      </c>
+      <c r="F115" s="14">
         <v>40</v>
       </c>
-      <c r="E114" s="78">
+      <c r="G115" s="14">
+        <v>10</v>
+      </c>
+      <c r="H115" s="17">
+        <v>0</v>
+      </c>
+      <c r="I115" s="25">
+        <v>20</v>
+      </c>
+      <c r="J115" s="26"/>
+      <c r="K115" s="27"/>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B116" s="47">
+        <v>6</v>
+      </c>
+      <c r="C116" s="42"/>
+      <c r="D116" s="13">
+        <v>20</v>
+      </c>
+      <c r="E116" s="14">
+        <v>20</v>
+      </c>
+      <c r="F116" s="14">
+        <v>40</v>
+      </c>
+      <c r="G116" s="14">
+        <v>19</v>
+      </c>
+      <c r="H116" s="17">
+        <v>1</v>
+      </c>
+      <c r="I116" s="25">
+        <v>36</v>
+      </c>
+      <c r="J116" s="26"/>
+      <c r="K116" s="27"/>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B117" s="47">
+        <v>7</v>
+      </c>
+      <c r="C117" s="42"/>
+      <c r="D117" s="13">
+        <v>15</v>
+      </c>
+      <c r="E117" s="14">
+        <v>20</v>
+      </c>
+      <c r="F117" s="14">
+        <v>35</v>
+      </c>
+      <c r="G117" s="14">
+        <v>25</v>
+      </c>
+      <c r="H117" s="17">
+        <v>5</v>
+      </c>
+      <c r="I117" s="25">
+        <v>56</v>
+      </c>
+      <c r="J117" s="26"/>
+      <c r="K117" s="27"/>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B118" s="47">
+        <v>8</v>
+      </c>
+      <c r="C118" s="42"/>
+      <c r="D118" s="13">
+        <v>10</v>
+      </c>
+      <c r="E118" s="14">
+        <v>20</v>
+      </c>
+      <c r="F118" s="14">
         <v>30</v>
       </c>
-      <c r="F114" s="78">
+      <c r="G118" s="14">
         <v>30</v>
       </c>
-      <c r="G114" s="78">
-        <v>0</v>
-      </c>
-      <c r="H114" s="81">
-        <v>0</v>
-      </c>
-      <c r="I114" s="83">
+      <c r="H118" s="17">
         <v>10</v>
       </c>
-      <c r="J114" s="84"/>
-      <c r="K114" s="85"/>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B115" s="68">
-        <v>5</v>
-      </c>
-      <c r="C115" s="69"/>
-      <c r="D115" s="77">
+      <c r="I118" s="25">
+        <v>80</v>
+      </c>
+      <c r="J118" s="26"/>
+      <c r="K118" s="27"/>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B119" s="47">
+        <v>9</v>
+      </c>
+      <c r="C119" s="42"/>
+      <c r="D119" s="13">
+        <v>10</v>
+      </c>
+      <c r="E119" s="14">
+        <v>15</v>
+      </c>
+      <c r="F119" s="14">
         <v>30</v>
       </c>
-      <c r="E115" s="78">
+      <c r="G119" s="14">
         <v>30</v>
       </c>
-      <c r="F115" s="78">
+      <c r="H119" s="17">
+        <v>15</v>
+      </c>
+      <c r="I119" s="25">
+        <v>100</v>
+      </c>
+      <c r="J119" s="26"/>
+      <c r="K119" s="27"/>
+    </row>
+    <row r="120" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B120" s="48">
+        <v>10</v>
+      </c>
+      <c r="C120" s="49"/>
+      <c r="D120" s="15">
+        <v>10</v>
+      </c>
+      <c r="E120" s="16">
+        <v>10</v>
+      </c>
+      <c r="F120" s="16">
+        <v>20</v>
+      </c>
+      <c r="G120" s="16">
         <v>40</v>
       </c>
-      <c r="G115" s="78">
-        <v>0</v>
-      </c>
-      <c r="H115" s="81">
-        <v>0</v>
-      </c>
-      <c r="I115" s="83">
+      <c r="H120" s="18">
         <v>20</v>
       </c>
-      <c r="J115" s="84"/>
-      <c r="K115" s="85"/>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B116" s="68">
-        <v>6</v>
-      </c>
-      <c r="C116" s="69"/>
-      <c r="D116" s="77">
-        <v>20</v>
-      </c>
-      <c r="E116" s="78">
-        <v>20</v>
-      </c>
-      <c r="F116" s="78">
-        <v>40</v>
-      </c>
-      <c r="G116" s="78">
-        <v>20</v>
-      </c>
-      <c r="H116" s="81">
-        <v>0</v>
-      </c>
-      <c r="I116" s="83">
-        <v>36</v>
-      </c>
-      <c r="J116" s="84"/>
-      <c r="K116" s="85"/>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B117" s="68">
-        <v>7</v>
-      </c>
-      <c r="C117" s="69"/>
-      <c r="D117" s="77">
-        <v>15</v>
-      </c>
-      <c r="E117" s="78">
-        <v>20</v>
-      </c>
-      <c r="F117" s="78">
-        <v>35</v>
-      </c>
-      <c r="G117" s="78">
-        <v>25</v>
-      </c>
-      <c r="H117" s="81">
-        <v>5</v>
-      </c>
-      <c r="I117" s="83">
-        <v>56</v>
-      </c>
-      <c r="J117" s="84"/>
-      <c r="K117" s="85"/>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B118" s="68">
-        <v>8</v>
-      </c>
-      <c r="C118" s="69"/>
-      <c r="D118" s="77">
-        <v>10</v>
-      </c>
-      <c r="E118" s="78">
-        <v>20</v>
-      </c>
-      <c r="F118" s="78">
-        <v>30</v>
-      </c>
-      <c r="G118" s="78">
-        <v>30</v>
-      </c>
-      <c r="H118" s="81">
-        <v>10</v>
-      </c>
-      <c r="I118" s="83">
-        <v>80</v>
-      </c>
-      <c r="J118" s="84"/>
-      <c r="K118" s="85"/>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B119" s="68">
-        <v>9</v>
-      </c>
-      <c r="C119" s="69"/>
-      <c r="D119" s="77">
-        <v>10</v>
-      </c>
-      <c r="E119" s="78">
-        <v>15</v>
-      </c>
-      <c r="F119" s="78">
-        <v>30</v>
-      </c>
-      <c r="G119" s="78">
-        <v>30</v>
-      </c>
-      <c r="H119" s="81">
-        <v>15</v>
-      </c>
-      <c r="I119" s="83">
-        <v>100</v>
-      </c>
-      <c r="J119" s="84"/>
-      <c r="K119" s="85"/>
-    </row>
-    <row r="120" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="72">
-        <v>10</v>
-      </c>
-      <c r="C120" s="73"/>
-      <c r="D120" s="79">
-        <v>10</v>
-      </c>
-      <c r="E120" s="80">
-        <v>10</v>
-      </c>
-      <c r="F120" s="80">
-        <v>20</v>
-      </c>
-      <c r="G120" s="80">
-        <v>40</v>
-      </c>
-      <c r="H120" s="82">
-        <v>20</v>
-      </c>
-      <c r="I120" s="89"/>
-      <c r="J120" s="90"/>
-      <c r="K120" s="91"/>
+      <c r="I120" s="28"/>
+      <c r="J120" s="29"/>
+      <c r="K120" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="I115:K115"/>
-    <mergeCell ref="I116:K116"/>
-    <mergeCell ref="I117:K117"/>
-    <mergeCell ref="I118:K118"/>
-    <mergeCell ref="I119:K119"/>
+    <mergeCell ref="B2:K5"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="B30:K35"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B73:K74"/>
+    <mergeCell ref="B90:K90"/>
+    <mergeCell ref="B77:K77"/>
+    <mergeCell ref="B86:K87"/>
+    <mergeCell ref="B78:K85"/>
+    <mergeCell ref="B91:K98"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B64:K64"/>
+    <mergeCell ref="B65:K72"/>
+    <mergeCell ref="B48:K49"/>
+    <mergeCell ref="B52:K52"/>
+    <mergeCell ref="B53:K59"/>
+    <mergeCell ref="B60:K61"/>
+    <mergeCell ref="B36:K37"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="B41:K47"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="B20:K25"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="C100:G100"/>
     <mergeCell ref="I120:K120"/>
     <mergeCell ref="B108:H108"/>
     <mergeCell ref="I108:K108"/>
@@ -3413,49 +3451,11 @@
     <mergeCell ref="B118:C118"/>
     <mergeCell ref="B120:C120"/>
     <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="B91:K98"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B73:K74"/>
-    <mergeCell ref="B90:K90"/>
-    <mergeCell ref="B77:K77"/>
-    <mergeCell ref="B86:K87"/>
-    <mergeCell ref="B78:K85"/>
-    <mergeCell ref="B64:K64"/>
-    <mergeCell ref="B65:K72"/>
-    <mergeCell ref="B48:K49"/>
-    <mergeCell ref="B52:K52"/>
-    <mergeCell ref="B53:K59"/>
-    <mergeCell ref="B60:K61"/>
-    <mergeCell ref="B36:K37"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="B41:K47"/>
-    <mergeCell ref="B19:K19"/>
-    <mergeCell ref="B20:K25"/>
-    <mergeCell ref="B29:K29"/>
-    <mergeCell ref="B30:K35"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="B2:K5"/>
+    <mergeCell ref="I115:K115"/>
+    <mergeCell ref="I116:K116"/>
+    <mergeCell ref="I117:K117"/>
+    <mergeCell ref="I118:K118"/>
+    <mergeCell ref="I119:K119"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
